--- a/pred_ohlcv/54_21/2019-10-21 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>280625.6034</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>280635.6034</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>428116.7501438016</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>287640.9901438016</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>302126.7580438016</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>362448.0868438016</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-140080.8735561984</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-133084.7465561984</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1049499.068356198</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-810722.0668561982</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-820697.0668561982</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-842162.8630561983</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LBA ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>428106.7501438016</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>428116.7501438016</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>287640.9901438016</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>302126.7580438016</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>302148.7580438016</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>301826.9032438016</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>362348.0868438016</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>362448.0868438016</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>370657.3248438016</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-368669.0870561984</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-140080.8735561984</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-104334.7465561984</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14051.62404380161</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-133084.7465561984</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1263084.746556198</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1102024.828056198</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1113337.523556198</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1089499.068356198</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1049499.068356198</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1049499.068356198</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1084511.810156198</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1067491.747256198</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1088524.346456198</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-953868.5059561983</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-977420.9059561983</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-977420.9059561983</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-969920.9059561983</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-969920.9059561983</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-984570.1156561984</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-810635.4600561983</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-810722.0668561982</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-820697.0668561982</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-693269.0668561982</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-673811.9724561983</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-842162.8630561983</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-789507.2301561984</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-792007.2301561984</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-838880.9214561983</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
